--- a/testes-planejamentos.xlsx
+++ b/testes-planejamentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENAI\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENAI\Desktop\escola_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D422B2FC-D442-479C-A967-BEFB48AE4A88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E916BD-6CCA-4122-BE6E-165315FBF426}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{8612B1CF-ADCD-4BD6-BFD2-1081FB2F3B17}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>ARQUIVOS</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>SAÍDA</t>
-  </si>
-  <si>
-    <t>Coluna6</t>
   </si>
   <si>
     <t>calcular_media</t>
@@ -556,7 +553,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,84 +584,84 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="3">
         <v>6.4</v>
@@ -672,104 +669,104 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
